--- a/게임 제작 기획서 진석.xlsx
+++ b/게임 제작 기획서 진석.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4605" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획서" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
   <si>
     <t>리볼버</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,66 +400,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갈귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격패턴: 돌진&amp;자폭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모한다르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드론(일벌레)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 플래이어 발견시 멈춘뒤 발사 그리고 일정거리 이동후 패턴반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돌진중간에 방향을 바꾸지 않는다. 사망시 폭발하여 주변 적들에게 피해를 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근후 공격까지 충전시간이 오래 걸린다. 폭격도중에 방향을 바꾸지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>레플리카</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>분열갑충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 드론과 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1대 맞으면 터진다. 터진후 작은 개체로 분열한다. 3번 분열한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니오버로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 오버로드와 공격패턴이 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오버로드와 달리 노예들을 2마리만 소환할수있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히페리온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격패턴: 레이저를 사방으로 뿌린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -472,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">적을 일정시간마다 소환한다.일정시간마다 적들을 죽이고 피를 회복한다. 적이 많을수록 능력치가 강화된다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오버로드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +428,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">8마리들의 노예를 갖는다. 노예들은 일정시간마다 생성되며 오버로드의 주위를 돌며 오버로드를 지킨 뒤 플래이어 방향으로 돌진한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격패턴: 은신지뢰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,14 +441,6 @@
   </si>
   <si>
     <t>플라즈마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 일정거리 근접 후 충전하여 레이저 구체 폭격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이저 발사후 회전하면서 되돌아온다. 일정시간마다 정신집중 후 드론을 소환한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -734,14 +666,6 @@
   </si>
   <si>
     <t>무기 화력 3배</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(최종보스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1페이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -784,19 +708,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>폭풍함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격방식: 멀리서 가만히 있으며 큰 구체를 쏜다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공속병신,투사체 발사 속도 병신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>닥템(폐기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 갈귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 50  충돌범위(상대적):1 속도(상대적):1 공격속도:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 -자폭: 이 캐릭터는 적을 발견하자 마자 일직선으로 돌진합니다. 적에게 닿거나 사망시에 주위 모든 캐릭터(피아구분x)에게 100의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3) 모한다르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴: 일정거리 근접 후 충전하여 레이저 구체 폭격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 30 충돌범위(상대적):1.5 속도(상대적):0.5 공격속도:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 -분광정렬: 이 캐릭터는 적을 발견하자 마자 적을 2초동안 조중한 뒤, 강력한 레이저를 발사합니다. 이 레이저(폭:0.5)는 이 캐릭터가 죽기전까지 지속되며 방향을 바꿀수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 요격기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴: 플래이어 발견시 멈춘뒤 발사 그리고 일정거리 이동후 패턴반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 15   충돌범위(상대적):1 속도(상대적):1 공격속도:2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격- 총알발사: 이 캐릭터는 적을 발견하자마자 총알을 발사합니다. 그리고 약 1초후 1초동안 이동한 뒤 다시공격합니다. 이 과정을 계속 반복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(4)폭풍함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 30   충돌범위(상대적):1.5 속도(상대적):0 공격속도:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 -에너지 구체:이 캐릭터는 적을 발견하자마자 에너지 구체를 발사합니다. 에너지 구체는 투사체가 매우 크지만(지름:3) 공격속도가 매우 느리며 캐릭터가 이동할수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6)분열갑충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴: 와리가리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 20  충돌범위(상대적):1.5 속도(상대적):3         미니 체력: 10 충돌범위(상대적):0.5 속도(상대적):2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 -분열:이 캐릭터는 아무 행동도 취하지않으며 그저 떠다닌다. 죽으면 더 작은 개체 2개로 분열한다. 이 개체들도 분열갑충 처럼 움직인다. 딱 한번 분열된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5)미니오버로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격패턴: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 60 충돌범위(상대적):2 속도(상대적):0.5 소환속도:4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 -노예 생산: 이 캐릭터는 적을 발견하면 노예를 소환합니다. 노예는 일정시간(4초)마다 생산되며 캐릭터에게 돌진 합니다. 노예는 총알에 피격당해 격추당할수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(A)히페리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 6000 충돌범위:그림맞춰서(졸못보단 크것지) 속도:0 공격속도:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격-요격기호출: 일정시간(10초)마다 드론7마리를 소환합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격-무차별발사: 5초마다 수많은 총탄을 발사합니다(보통 총알의 0.5배 속도).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력: 4500 충돌범위:그림맞춰서(졸못보단 크것지) 속도:0 공격속도:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8마리들의 노예를 갖는다. 노예들은 일정시간마다 생성되며 오버로드의 주위를 돌며 오버로드를 지킨 뒤 플래이어 방향으로 돌진한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(최종보스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1페이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1168,6 +1204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1222,29 +1261,29 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1620,144 +1659,144 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -1776,96 +1815,96 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="41"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="41"/>
-      <c r="D15" s="37" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="2:15">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="41"/>
-      <c r="D18" s="37" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="10"/>
@@ -1883,22 +1922,22 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -1917,40 +1956,40 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="D22" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" s="10"/>
@@ -1968,74 +2007,74 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
-      <c r="D27" s="37" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
-      <c r="D28" s="37" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="10"/>
@@ -2056,105 +2095,105 @@
       <c r="C30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="10"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="41"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="C34" s="41"/>
-      <c r="D34" s="37" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="2:29">
-      <c r="C35" s="41"/>
-      <c r="D35" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="2:29">
       <c r="C36" s="10"/>
@@ -2172,22 +2211,22 @@
       <c r="O36" s="8"/>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
     </row>
     <row r="38" spans="2:29">
       <c r="C38" s="10"/>
@@ -2205,88 +2244,88 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
     </row>
     <row r="40" spans="2:29">
-      <c r="C40" s="41"/>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="42"/>
+      <c r="D40" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="C43" s="41"/>
-      <c r="D43" s="37" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="2:29">
       <c r="D44" s="8"/>
@@ -2303,173 +2342,173 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="2:29">
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
+      <c r="D45" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="C46" s="41"/>
-      <c r="D46" s="37" t="s">
+      <c r="C46" s="42"/>
+      <c r="D46" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="2:29">
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="2:29">
-      <c r="B48" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="B48" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="37"/>
+      <c r="C50" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="41"/>
-      <c r="D51" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
     </row>
     <row r="52" spans="3:15">
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
+      <c r="C53" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="41"/>
-      <c r="D54" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="37"/>
-      <c r="O54" s="37"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="38"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="38"/>
     </row>
     <row r="55" spans="3:15">
-      <c r="C55" s="41"/>
-      <c r="D55" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="37"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="37"/>
-      <c r="O55" s="37"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="38"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="38"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="41"/>
-      <c r="D56" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="E56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="43"/>
       <c r="F56" s="8" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -2482,11 +2521,11 @@
       <c r="O56" s="8"/>
     </row>
     <row r="57" spans="3:15">
-      <c r="C57" s="41"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="8" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -2499,201 +2538,201 @@
       <c r="O57" s="8"/>
     </row>
     <row r="58" spans="3:15">
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="38"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="38"/>
+      <c r="M58" s="38"/>
+      <c r="N58" s="38"/>
+      <c r="O58" s="38"/>
     </row>
     <row r="59" spans="3:15">
       <c r="C59" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="37"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="37"/>
-      <c r="O59" s="37"/>
+        <v>138</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="38"/>
+      <c r="J59" s="38"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="38"/>
+      <c r="M59" s="38"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="38"/>
     </row>
     <row r="60" spans="3:15" ht="16.5" customHeight="1">
       <c r="D60" s="35" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E60" s="36"/>
-      <c r="F60" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="37"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="37"/>
-      <c r="O60" s="37"/>
+      <c r="F60" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="38"/>
+      <c r="K60" s="38"/>
+      <c r="L60" s="38"/>
+      <c r="M60" s="38"/>
+      <c r="N60" s="38"/>
+      <c r="O60" s="38"/>
     </row>
     <row r="61" spans="3:15">
       <c r="D61" s="8"/>
-      <c r="E61" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="37"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="37"/>
-      <c r="O61" s="37"/>
+      <c r="E61" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="38"/>
+      <c r="K61" s="38"/>
+      <c r="L61" s="38"/>
+      <c r="M61" s="38"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="38"/>
     </row>
     <row r="62" spans="3:15">
       <c r="D62" s="8"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="37"/>
-      <c r="O62" s="37"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="38"/>
+      <c r="J62" s="38"/>
+      <c r="K62" s="38"/>
+      <c r="L62" s="38"/>
+      <c r="M62" s="38"/>
+      <c r="N62" s="38"/>
+      <c r="O62" s="38"/>
     </row>
     <row r="63" spans="3:15">
       <c r="D63" s="8"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="37"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="37"/>
-      <c r="O63" s="37"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="38"/>
+      <c r="O63" s="38"/>
     </row>
     <row r="64" spans="3:15">
       <c r="D64" s="8"/>
-      <c r="E64" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
+      <c r="E64" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F64" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="38"/>
+      <c r="J64" s="38"/>
+      <c r="K64" s="38"/>
+      <c r="L64" s="38"/>
+      <c r="M64" s="38"/>
+      <c r="N64" s="38"/>
+      <c r="O64" s="38"/>
     </row>
     <row r="65" spans="4:15">
       <c r="D65" s="8"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
     </row>
     <row r="66" spans="4:15">
       <c r="D66" s="8"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="38"/>
+      <c r="M66" s="38"/>
+      <c r="N66" s="38"/>
+      <c r="O66" s="38"/>
     </row>
     <row r="67" spans="4:15" ht="16.5" customHeight="1">
       <c r="D67" s="8"/>
       <c r="E67" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
+        <v>153</v>
+      </c>
+      <c r="F67" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="38"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="38"/>
+      <c r="M67" s="38"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="38"/>
     </row>
     <row r="68" spans="4:15">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
+      <c r="F68" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
+      <c r="N68" s="38"/>
+      <c r="O68" s="38"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -2790,150 +2829,150 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="B6" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
+      <c r="B7" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="B8" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="B11" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -2952,82 +2991,82 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="41"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="41"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="41"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="2:15">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="41"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="41"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="10"/>
@@ -3045,22 +3084,22 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="B20" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -3079,34 +3118,34 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="41"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" s="10"/>
@@ -3124,64 +3163,64 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="10"/>
@@ -3200,78 +3239,78 @@
     </row>
     <row r="30" spans="2:15">
       <c r="C30" s="9"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="10"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="C33" s="41"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="C34" s="41"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="2:15">
       <c r="C35" s="10"/>
@@ -3289,36 +3328,36 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="B37" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
     </row>
     <row r="38" spans="2:15">
       <c r="D38" s="8"/>
@@ -3335,7 +3374,7 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="C39" s="41"/>
+      <c r="C39" s="42"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -3350,49 +3389,49 @@
       <c r="O39" s="8"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="C40" s="41"/>
+      <c r="C40" s="42"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="C41" s="41"/>
+      <c r="C41" s="42"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="C43" s="41"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
-      <c r="K43" s="47"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="C44" s="41"/>
+      <c r="C44" s="42"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="C45" s="41"/>
+      <c r="C45" s="42"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="B47" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3452,122 +3491,122 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="2"/>
@@ -3586,20 +3625,20 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="2"/>
@@ -3637,7 +3676,7 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="2"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2"/>
@@ -3655,7 +3694,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="2"/>
-      <c r="C15" s="41"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3671,7 +3710,7 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="2"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3687,7 +3726,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="2"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3719,7 +3758,7 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="2"/>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2"/>
@@ -3737,7 +3776,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="2"/>
-      <c r="C20" s="41"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3753,7 +3792,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="2"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3769,7 +3808,7 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="2"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3784,37 +3823,37 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="C24" s="41"/>
+      <c r="C24" s="42"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
+      <c r="C26" s="42"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
+      <c r="C27" s="42"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
+      <c r="C28" s="42"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="C29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="C30" s="41"/>
+      <c r="C30" s="42"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="41"/>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41"/>
+      <c r="C32" s="42"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="41"/>
+      <c r="C33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3865,7 +3904,7 @@
       <c r="A2" s="12"/>
       <c r="B2" s="26"/>
       <c r="C2" s="23" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1</v>
@@ -3894,12 +3933,12 @@
       <c r="L2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
       <c r="Q2" s="23" t="s">
         <v>30</v>
       </c>
@@ -3908,8 +3947,8 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="54" t="s">
-        <v>135</v>
+      <c r="B3" s="55" t="s">
+        <v>118</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3952,7 +3991,7 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="54"/>
+      <c r="B4" s="55"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -4004,8 +4043,8 @@
       <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="55" t="s">
-        <v>136</v>
+      <c r="B6" s="56" t="s">
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -4051,7 +4090,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="54"/>
+      <c r="B7" s="55"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -4085,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>11</v>
@@ -4096,9 +4135,9 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="54"/>
+      <c r="B8" s="55"/>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -4129,7 +4168,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="Q8">
         <f>SUM(H8:J8)</f>
@@ -4141,39 +4180,39 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="54"/>
+      <c r="B10" s="55"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="54"/>
+      <c r="B11" s="55"/>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="54"/>
+      <c r="B12" s="55"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="54"/>
+      <c r="B13" s="55"/>
       <c r="C13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="54"/>
-      <c r="C14" s="47" t="s">
-        <v>182</v>
+      <c r="B14" s="55"/>
+      <c r="C14" s="48" t="s">
+        <v>163</v>
       </c>
       <c r="D14">
         <v>33</v>
@@ -4209,14 +4248,14 @@
       <c r="Q14">
         <v>0.5</v>
       </c>
-      <c r="R14" s="53">
+      <c r="R14" s="54">
         <f>SUM(G14*I14,G15*I15+G16*I16)</f>
         <v>362.54545454545456</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="54"/>
-      <c r="C15" s="47"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="48"/>
       <c r="F15">
         <v>6</v>
       </c>
@@ -4239,11 +4278,11 @@
       <c r="Q15">
         <v>0.33</v>
       </c>
-      <c r="R15" s="53"/>
+      <c r="R15" s="54"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="54"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="48"/>
       <c r="F16">
         <v>15</v>
       </c>
@@ -4272,10 +4311,10 @@
       <c r="Q16">
         <v>0.25</v>
       </c>
-      <c r="R16" s="53"/>
+      <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">
-      <c r="B17" s="54"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
@@ -4301,7 +4340,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -4309,7 +4348,7 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" s="3" customFormat="1">
-      <c r="B18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
@@ -4335,7 +4374,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -4356,7 +4395,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" s="21" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
@@ -4405,7 +4444,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" s="21" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4429,7 +4468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -4478,7 +4517,7 @@
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4516,7 +4555,7 @@
     </row>
     <row r="4" spans="2:14">
       <c r="L4" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
@@ -4535,8 +4574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N87"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76:M79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4546,45 +4585,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
-      <c r="B4" s="61"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="57" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -4598,8 +4650,10 @@
       <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="B5" s="61"/>
-      <c r="C5" s="57"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="57" t="s">
+        <v>170</v>
+      </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
@@ -4611,28 +4665,41 @@
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
     </row>
+    <row r="6" spans="1:14">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+    </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="B7" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="41"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="57" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -4646,8 +4713,10 @@
       <c r="M8" s="57"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="41"/>
-      <c r="C9" s="57"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="57" t="s">
+        <v>174</v>
+      </c>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -4659,27 +4728,42 @@
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
     </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+    </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="41"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="57" t="s">
+        <v>177</v>
+      </c>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -4692,8 +4776,10 @@
       <c r="M12" s="57"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="41"/>
-      <c r="C13" s="57"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="57" t="s">
+        <v>178</v>
+      </c>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
@@ -4705,76 +4791,104 @@
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
     </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="B15" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="41"/>
-      <c r="C16" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="41"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="B19" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="41"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="57" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -4788,8 +4902,10 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="41"/>
-      <c r="C21" s="57"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="57" t="s">
+        <v>185</v>
+      </c>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -4801,28 +4917,41 @@
       <c r="L21" s="57"/>
       <c r="M21" s="57"/>
     </row>
+    <row r="22" spans="2:13">
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+    </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
+      <c r="B23" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="57" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -4836,7 +4965,7 @@
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="41"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -4849,28 +4978,41 @@
       <c r="L25" s="57"/>
       <c r="M25" s="57"/>
     </row>
+    <row r="26" spans="2:13">
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+    </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="B27" s="42" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="41"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="57" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -4884,8 +5026,10 @@
       <c r="M28" s="57"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="41"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="57" t="s">
+        <v>189</v>
+      </c>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
@@ -4897,28 +5041,41 @@
       <c r="L29" s="57"/>
       <c r="M29" s="57"/>
     </row>
+    <row r="30" spans="2:13">
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+    </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="B31" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="58"/>
+      <c r="B32" s="59"/>
       <c r="C32" s="57" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
@@ -4932,8 +5089,10 @@
       <c r="M32" s="57"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="58"/>
-      <c r="C33" s="57"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="57" t="s">
+        <v>192</v>
+      </c>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
@@ -4945,28 +5104,43 @@
       <c r="L33" s="57"/>
       <c r="M33" s="57"/>
     </row>
+    <row r="34" spans="2:13">
+      <c r="C34" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+    </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
+      <c r="B35" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="58"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="57" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
@@ -4980,7 +5154,7 @@
       <c r="M36" s="57"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="58"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
@@ -4993,28 +5167,41 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
+    <row r="38" spans="2:13">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+    </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
+      <c r="B39" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="58"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="57" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
@@ -5028,7 +5215,7 @@
       <c r="M40" s="57"/>
     </row>
     <row r="41" spans="2:13">
-      <c r="B41" s="58"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
@@ -5041,22 +5228,35 @@
       <c r="L41" s="57"/>
       <c r="M41" s="57"/>
     </row>
+    <row r="42" spans="2:13">
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+    </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="58"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="58"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -5070,7 +5270,7 @@
       <c r="M44" s="57"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="58"/>
+      <c r="B45" s="59"/>
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -5083,22 +5283,35 @@
       <c r="L45" s="57"/>
       <c r="M45" s="57"/>
     </row>
+    <row r="46" spans="2:13">
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+    </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="58"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -5112,7 +5325,7 @@
       <c r="M48" s="57"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="58"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
@@ -5125,28 +5338,41 @@
       <c r="L49" s="57"/>
       <c r="M49" s="57"/>
     </row>
+    <row r="50" spans="2:13">
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+    </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
+      <c r="B51" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="58"/>
+      <c r="B52" s="59"/>
       <c r="C52" s="57" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -5160,7 +5386,7 @@
       <c r="M52" s="57"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="58"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="57"/>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
@@ -5173,23 +5399,36 @@
       <c r="L53" s="57"/>
       <c r="M53" s="57"/>
     </row>
+    <row r="54" spans="2:13">
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+    </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
       <c r="F56" s="57"/>
@@ -5202,7 +5441,7 @@
       <c r="M56" s="57"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="58"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
@@ -5215,28 +5454,41 @@
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
     </row>
+    <row r="58" spans="2:13">
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+    </row>
     <row r="59" spans="2:13">
-      <c r="B59" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-    </row>
-    <row r="60" spans="2:13">
-      <c r="B60" s="58"/>
-      <c r="C60" s="64" t="s">
-        <v>124</v>
+      <c r="B59" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+    </row>
+    <row r="60" spans="2:13" ht="16.5" customHeight="1">
+      <c r="B60" s="59"/>
+      <c r="C60" s="65" t="s">
+        <v>107</v>
       </c>
       <c r="D60" s="57"/>
       <c r="E60" s="57"/>
@@ -5250,7 +5502,7 @@
       <c r="M60" s="57"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="58"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="57"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
@@ -5263,22 +5515,35 @@
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
     </row>
+    <row r="62" spans="2:13">
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+    </row>
     <row r="63" spans="2:13">
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+      <c r="H63" s="60"/>
+      <c r="I63" s="60"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="60"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="60"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="58"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="57"/>
       <c r="D64" s="57"/>
       <c r="E64" s="57"/>
@@ -5292,7 +5557,7 @@
       <c r="M64" s="57"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="58"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="57"/>
       <c r="D65" s="57"/>
       <c r="E65" s="57"/>
@@ -5305,288 +5570,327 @@
       <c r="L65" s="57"/>
       <c r="M65" s="57"/>
     </row>
+    <row r="66" spans="2:13">
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+    </row>
     <row r="67" spans="2:13">
-      <c r="B67" s="41"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="56"/>
-      <c r="J67" s="56"/>
-      <c r="K67" s="56"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="41"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
-      <c r="M68" s="37"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="38"/>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="41"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="38"/>
+      <c r="K69" s="38"/>
+      <c r="L69" s="38"/>
+      <c r="M69" s="38"/>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
     </row>
     <row r="71" spans="2:13">
-      <c r="B71" s="41"/>
-      <c r="C71" s="56"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="58"/>
+      <c r="J71" s="58"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="58"/>
+      <c r="M71" s="58"/>
     </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="41"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="41"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
+      <c r="B75" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="68"/>
+      <c r="E75" s="68"/>
+      <c r="F75" s="68"/>
+      <c r="G75" s="68"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
     </row>
     <row r="76" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B76" s="58"/>
-      <c r="C76" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="65"/>
-      <c r="J76" s="65"/>
-      <c r="K76" s="65"/>
-      <c r="L76" s="65"/>
-      <c r="M76" s="65"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="58"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-      <c r="J77" s="65"/>
-      <c r="K77" s="65"/>
-      <c r="L77" s="65"/>
-      <c r="M77" s="65"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="58"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="65"/>
-      <c r="L78" s="65"/>
-      <c r="M78" s="65"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="58"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="58"/>
-      <c r="C80" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="69" t="s">
+        <v>159</v>
+      </c>
+      <c r="D80" s="69"/>
+      <c r="E80" s="69"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="69"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="69"/>
+      <c r="J80" s="69"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="69"/>
+      <c r="M80" s="69"/>
     </row>
     <row r="81" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B81" s="58"/>
-      <c r="C81" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-      <c r="J81" s="65"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
+      <c r="M81" s="66"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="58"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="58"/>
-      <c r="C83" s="66" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
     </row>
     <row r="84" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B84" s="58"/>
-      <c r="C84" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-      <c r="J84" s="65"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
+      <c r="M84" s="66"/>
     </row>
     <row r="85" spans="2:13">
-      <c r="B85" s="58"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-      <c r="J85" s="65"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="66"/>
+      <c r="M85" s="66"/>
     </row>
     <row r="86" spans="2:13">
-      <c r="B86" s="58"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
     </row>
     <row r="87" spans="2:13">
-      <c r="B87" s="58"/>
-      <c r="C87" s="65"/>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
+      <c r="M87" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="72">
     <mergeCell ref="C81:M82"/>
     <mergeCell ref="C83:M83"/>
     <mergeCell ref="C84:M87"/>
@@ -5599,7 +5903,6 @@
     <mergeCell ref="C80:M80"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M17"/>
     <mergeCell ref="B63:B65"/>
     <mergeCell ref="C63:M63"/>
     <mergeCell ref="C64:M65"/>
@@ -5613,9 +5916,6 @@
     <mergeCell ref="C43:M43"/>
     <mergeCell ref="C44:M45"/>
     <mergeCell ref="C27:M27"/>
-    <mergeCell ref="C28:M29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:M31"/>
     <mergeCell ref="B67:B69"/>
     <mergeCell ref="C67:M67"/>
     <mergeCell ref="C68:M69"/>
@@ -5625,30 +5925,44 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:M59"/>
     <mergeCell ref="C60:M61"/>
-    <mergeCell ref="C32:M33"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M5"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C8:M9"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C5:M5"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C12:M13"/>
     <mergeCell ref="C52:M53"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="C51:M51"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:M23"/>
     <mergeCell ref="C24:M25"/>
     <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C34:M34"/>
+    <mergeCell ref="C12:M12"/>
+    <mergeCell ref="C13:M13"/>
+    <mergeCell ref="C16:M16"/>
+    <mergeCell ref="C17:M17"/>
+    <mergeCell ref="C20:M20"/>
+    <mergeCell ref="C38:M38"/>
+    <mergeCell ref="C21:M21"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C29:M29"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="C37:M37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5676,148 +5990,148 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
+      <c r="B6" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
+      <c r="B7" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
+      <c r="B8" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -5836,82 +6150,82 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="41"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="41"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="41"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
     </row>
     <row r="16" spans="2:15">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="41"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="41"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="10"/>
@@ -5929,20 +6243,20 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -5961,34 +6275,34 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="41"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" s="10"/>
@@ -6006,64 +6320,64 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="10"/>
@@ -6082,78 +6396,78 @@
     </row>
     <row r="30" spans="2:15">
       <c r="C30" s="9"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="10"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="41"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="C34" s="41"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="2:29">
       <c r="C35" s="10"/>
@@ -6171,20 +6485,20 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:29">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
     </row>
     <row r="37" spans="2:29">
       <c r="C37" s="10"/>
@@ -6202,150 +6516,150 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="2:29">
-      <c r="C38" s="41"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="C39" s="41"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="41" spans="2:29">
-      <c r="C41" s="41"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="C42" s="41"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="2:29">
-      <c r="C44" s="41"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
     </row>
     <row r="45" spans="2:29">
-      <c r="C45" s="41"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="37"/>
-      <c r="O45" s="37"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="37"/>
-      <c r="O46" s="37"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="2:29">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
     </row>
     <row r="48" spans="2:29">
       <c r="D48" s="8"/>
@@ -6362,7 +6676,7 @@
       <c r="O48" s="8"/>
     </row>
     <row r="49" spans="3:15">
-      <c r="C49" s="41"/>
+      <c r="C49" s="42"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -6377,51 +6691,52 @@
       <c r="O49" s="8"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="41"/>
+      <c r="C50" s="42"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="41"/>
+      <c r="C51" s="42"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="41"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="47"/>
-      <c r="N53" s="47"/>
-      <c r="O53" s="47"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="48"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="41"/>
+      <c r="C54" s="42"/>
     </row>
     <row r="55" spans="3:15">
-      <c r="C55" s="41"/>
+      <c r="C55" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="B11:O11"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:O13"/>
     <mergeCell ref="D14:O14"/>
     <mergeCell ref="D15:O15"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:O38"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
     <mergeCell ref="B20:O20"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:O22"/>
@@ -6431,15 +6746,17 @@
     <mergeCell ref="D26:O26"/>
     <mergeCell ref="D27:O27"/>
     <mergeCell ref="D28:O28"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:O32"/>
     <mergeCell ref="D33:O33"/>
     <mergeCell ref="D34:O34"/>
     <mergeCell ref="R38:AC38"/>
     <mergeCell ref="D39:O39"/>
     <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:O38"/>
     <mergeCell ref="C53:C55"/>
     <mergeCell ref="D53:O53"/>
     <mergeCell ref="D43:O43"/>
@@ -6448,9 +6765,6 @@
     <mergeCell ref="D45:O45"/>
     <mergeCell ref="D46:O46"/>
     <mergeCell ref="B47:O47"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D42:O42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/게임 제작 기획서 진석.xlsx
+++ b/게임 제작 기획서 진석.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Git folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4605" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획서" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="적 수치" sheetId="3" r:id="rId6"/>
     <sheet name="적 기획서" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
   <si>
     <t>리볼버</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,14 +401,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>갈귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격패턴: 돌진&amp;자폭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>모한다르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴: 플래이어 발견시 멈춘뒤 발사 그리고 일정거리 이동후 패턴반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌진중간에 방향을 바꾸지 않는다. 사망시 폭발하여 주변 적들에게 피해를 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근후 공격까지 충전시간이 오래 걸린다. 폭격도중에 방향을 바꾸지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>레플리카</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>분열갑충</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴: 드론과 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1대 맞으면 터진다. 터진후 작은 개체로 분열한다. 3번 분열한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격패턴: 오버로드와 공격패턴이 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버로드와 달리 노예들을 2마리만 소환할수있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히페리온</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격패턴: 레이저를 사방으로 뿌린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,24 +489,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공격패턴: 일정거리 근접 후 충전하여 레이저 구체 폭격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 발사후 회전하면서 되돌아온다. 일정시간마다 정신집중 후 드론을 소환한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격패턴: 플레이어 주위를 돌다가 공격하고 총알이나 플레이어가 다가오면 피한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>플레어이와 똑같은 외형과 똑같은 무기를 가지고 똑같은 스탯으로 공격한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현실속의 준섭이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 답이 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답을 찾기 위해 책과 공식과 폰과 교과서 등등 모든 것을 주위에 흘리고 다닌다.
-일정한 주기로 혼돈의 카오스가 일어나 모든것이 카오스화된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -669,10 +709,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>보스가 3마리로 분열하며 3마리 모두 다른 적이 된다.
-공격패턴은 일정한 대미지를 받을 때마다 다른 보스로 랜덤하게 변하는 것으로 뒤로 갈수록 패턴이 더 빨라진다.
-변했을 때 원래 보스보다 살짝 어둡고 일러스트가 약간 차이가 난다.
-보스가 소환한 적은 보스가 바뀌어도 없어지지 않는다.</t>
+    <t>(최종보스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1페이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -708,138 +749,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>폭풍함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>공격방식: 멀리서 가만히 있으며 큰 구체를 쏜다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공속병신,투사체 발사 속도 병신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>닥템(폐기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(2) 갈귀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 50  충돌범위(상대적):1 속도(상대적):1 공격속도:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 -자폭: 이 캐릭터는 적을 발견하자 마자 일직선으로 돌진합니다. 적에게 닿거나 사망시에 주위 모든 캐릭터(피아구분x)에게 100의 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3) 모한다르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 일정거리 근접 후 충전하여 레이저 구체 폭격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 30 충돌범위(상대적):1.5 속도(상대적):0.5 공격속도:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 -분광정렬: 이 캐릭터는 적을 발견하자 마자 적을 2초동안 조중한 뒤, 강력한 레이저를 발사합니다. 이 레이저(폭:0.5)는 이 캐릭터가 죽기전까지 지속되며 방향을 바꿀수 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 요격기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 플래이어 발견시 멈춘뒤 발사 그리고 일정거리 이동후 패턴반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 15   충돌범위(상대적):1 속도(상대적):1 공격속도:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격- 총알발사: 이 캐릭터는 적을 발견하자마자 총알을 발사합니다. 그리고 약 1초후 1초동안 이동한 뒤 다시공격합니다. 이 과정을 계속 반복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(4)폭풍함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 30   충돌범위(상대적):1.5 속도(상대적):0 공격속도:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 -에너지 구체:이 캐릭터는 적을 발견하자마자 에너지 구체를 발사합니다. 에너지 구체는 투사체가 매우 크지만(지름:3) 공격속도가 매우 느리며 캐릭터가 이동할수 없습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(6)분열갑충</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격패턴: 와리가리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 20  충돌범위(상대적):1.5 속도(상대적):3         미니 체력: 10 충돌범위(상대적):0.5 속도(상대적):2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 -분열:이 캐릭터는 아무 행동도 취하지않으며 그저 떠다닌다. 죽으면 더 작은 개체 2개로 분열한다. 이 개체들도 분열갑충 처럼 움직인다. 딱 한번 분열된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5)미니오버로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격패턴: </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 60 충돌범위(상대적):2 속도(상대적):0.5 소환속도:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 -노예 생산: 이 캐릭터는 적을 발견하면 노예를 소환합니다. 노예는 일정시간(4초)마다 생산되며 캐릭터에게 돌진 합니다. 노예는 총알에 피격당해 격추당할수 있습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(A)히페리온</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 6000 충돌범위:그림맞춰서(졸못보단 크것지) 속도:0 공격속도:5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">공격-요격기호출: 일정시간(10초)마다 드론7마리를 소환합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격-무차별발사: 5초마다 수많은 총탄을 발사합니다(보통 총알의 0.5배 속도).</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력: 4500 충돌범위:그림맞춰서(졸못보단 크것지) 속도:0 공격속도:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">8마리들의 노예를 갖는다. 노예들은 일정시간마다 생성되며 오버로드의 주위를 돌며 오버로드를 지킨 뒤 플래이어 방향으로 돌진한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(최종보스)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1페이즈</t>
+    <t xml:space="preserve">적을 일정시간마다 소환한다.일정시간마다 적들을 죽이고 피를 회복한다.
+적이 많을수록 능력치가 강화된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8마리들의 노예를 갖는다.
+노예들은 일정시간마다 생성되며 오버로드의 주위를 돌며
+오버로드를 지킨 뒤 플래이어 방향으로 돌진한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스가 3마리로 분열하며 3마리 모두 다른 적이 된다.
+공격패턴은 일정한 대미지를 받을 때마다 다른 보스로
+랜덤하게 변하는 것으로뒤로 갈수록 패턴이 더 빨라진다.
+변했을 때 원래 보스보다 살짝 어둡고 일러스트가 약간 차이가 난다.
+보스가 소환한 적은 보스가 바뀌어도 없어지지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 상의 랜덤한 위치로 계속 이동한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니
+오버로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기본 공격 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번에 2~8마리 정도 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모한다르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래이어에게 일정 거리 도달한 뒤
+3초간 충전후에 느리고 큰 발사체를 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번에 1~5마리 정도 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번에 3~5마리 정도 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5마리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초 뒤에 플레이어가 있던 위치로 빠른
+속도로 날라가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1204,9 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,12 +1281,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1276,17 +1296,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1647,7 +1670,7 @@
       <selection activeCell="D50" sqref="D50:O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="11"/>
@@ -1659,144 +1682,144 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -1815,96 +1838,96 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="42"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="42"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="2:15">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="42"/>
-      <c r="D18" s="38" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="10"/>
@@ -1922,22 +1945,22 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -1956,40 +1979,40 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+      <c r="D22" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="42"/>
-      <c r="D23" s="38" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" s="10"/>
@@ -2007,74 +2030,74 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="42"/>
-      <c r="D26" s="38" t="s">
+      <c r="C26" s="41"/>
+      <c r="D26" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="42"/>
-      <c r="D27" s="38" t="s">
+      <c r="C27" s="41"/>
+      <c r="D27" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="42"/>
-      <c r="D28" s="38" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="10"/>
@@ -2095,105 +2118,105 @@
       <c r="C30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="10"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="42"/>
-      <c r="D33" s="38" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="C34" s="42"/>
-      <c r="D34" s="38" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
     </row>
     <row r="35" spans="2:29">
-      <c r="C35" s="42"/>
-      <c r="D35" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
     </row>
     <row r="36" spans="2:29">
       <c r="C36" s="10"/>
@@ -2211,22 +2234,22 @@
       <c r="O36" s="8"/>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
     </row>
     <row r="38" spans="2:29">
       <c r="C38" s="10"/>
@@ -2244,88 +2267,88 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38"/>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="38"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
     </row>
     <row r="40" spans="2:29">
-      <c r="C40" s="42"/>
-      <c r="D40" s="38" t="s">
+      <c r="C40" s="41"/>
+      <c r="D40" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="C42" s="42" t="s">
+      <c r="C42" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="C43" s="42"/>
-      <c r="D43" s="38" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
     </row>
     <row r="44" spans="2:29">
       <c r="D44" s="8"/>
@@ -2342,173 +2365,173 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="2:29">
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="47"/>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
+      <c r="D45" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="C46" s="42"/>
-      <c r="D46" s="38" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" spans="2:29">
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
     </row>
     <row r="48" spans="2:29">
-      <c r="B48" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
+      <c r="B48" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
+      <c r="C50" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="42"/>
-      <c r="D51" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
     </row>
     <row r="52" spans="3:15">
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
+      <c r="C53" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="42"/>
-      <c r="D54" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
     </row>
     <row r="55" spans="3:15">
-      <c r="C55" s="42"/>
-      <c r="D55" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="42"/>
-      <c r="D56" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E56" s="43"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" s="42"/>
       <c r="F56" s="8" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -2521,11 +2544,11 @@
       <c r="O56" s="8"/>
     </row>
     <row r="57" spans="3:15">
-      <c r="C57" s="42"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
       <c r="F57" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -2538,201 +2561,201 @@
       <c r="O57" s="8"/>
     </row>
     <row r="58" spans="3:15">
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
-      <c r="K58" s="38"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
     </row>
     <row r="59" spans="3:15">
       <c r="C59" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
-      <c r="K59" s="38"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
+        <v>148</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
     </row>
     <row r="60" spans="3:15" ht="16.5" customHeight="1">
       <c r="D60" s="35" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E60" s="36"/>
-      <c r="F60" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
+      <c r="F60" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
     </row>
     <row r="61" spans="3:15">
       <c r="D61" s="8"/>
-      <c r="E61" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
+      <c r="E61" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
     </row>
     <row r="62" spans="3:15">
       <c r="D62" s="8"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
-      <c r="K62" s="38"/>
-      <c r="L62" s="38"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
     </row>
     <row r="63" spans="3:15">
       <c r="D63" s="8"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
     </row>
     <row r="64" spans="3:15">
       <c r="D64" s="8"/>
-      <c r="E64" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
-      <c r="K64" s="38"/>
-      <c r="L64" s="38"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
+      <c r="E64" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
     </row>
     <row r="65" spans="4:15">
       <c r="D65" s="8"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
     </row>
     <row r="66" spans="4:15">
       <c r="D66" s="8"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
     </row>
     <row r="67" spans="4:15" ht="16.5" customHeight="1">
       <c r="D67" s="8"/>
       <c r="E67" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
+        <v>163</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
     </row>
     <row r="68" spans="4:15">
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
+      <c r="F68" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
     </row>
     <row r="69" spans="4:15">
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -2817,7 +2840,7 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="11"/>
@@ -2829,150 +2852,150 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="B5" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="B6" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="B7" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="B8" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="B11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -2991,82 +3014,82 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="42"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="42"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="42"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="2:15">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="42"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="42"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="10"/>
@@ -3084,22 +3107,22 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="B20" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -3118,34 +3141,34 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="42"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="42"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" s="10"/>
@@ -3163,64 +3186,64 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="42"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="42"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="42"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="42"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="10"/>
@@ -3239,78 +3262,78 @@
     </row>
     <row r="30" spans="2:15">
       <c r="C30" s="9"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="10"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="42"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="C33" s="42"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="C34" s="42"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
     </row>
     <row r="35" spans="2:15">
       <c r="C35" s="10"/>
@@ -3328,36 +3351,36 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
+      <c r="B37" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
     </row>
     <row r="38" spans="2:15">
       <c r="D38" s="8"/>
@@ -3374,7 +3397,7 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="C39" s="42"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -3389,49 +3412,49 @@
       <c r="O39" s="8"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="C40" s="42"/>
+      <c r="C40" s="41"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="C41" s="42"/>
+      <c r="C41" s="41"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="C43" s="42"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="47"/>
+      <c r="N43" s="47"/>
+      <c r="O43" s="47"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="C44" s="42"/>
+      <c r="C44" s="41"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="C45" s="42"/>
+      <c r="C45" s="41"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
+      <c r="B47" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -3484,129 +3507,129 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" s="2"/>
@@ -3625,20 +3648,20 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="2"/>
@@ -3676,7 +3699,7 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="2"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="2"/>
@@ -3694,7 +3717,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="2"/>
-      <c r="C15" s="42"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3710,7 +3733,7 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="2"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3726,7 +3749,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="2"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3758,7 +3781,7 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="2"/>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="2"/>
@@ -3776,7 +3799,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="2"/>
-      <c r="C20" s="42"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3792,7 +3815,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="2"/>
-      <c r="C21" s="42"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3808,7 +3831,7 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="2"/>
-      <c r="C22" s="42"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3823,37 +3846,37 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="42"/>
+      <c r="C23" s="41"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="C24" s="42"/>
+      <c r="C24" s="41"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="42"/>
+      <c r="C25" s="41"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="42"/>
+      <c r="C26" s="41"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="42"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="42"/>
+      <c r="C28" s="41"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="C29" s="42"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="C30" s="42"/>
+      <c r="C30" s="41"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="42"/>
+      <c r="C31" s="41"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="42"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="42"/>
+      <c r="C33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3881,7 +3904,7 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="21" customWidth="1"/>
@@ -3904,7 +3927,7 @@
       <c r="A2" s="12"/>
       <c r="B2" s="26"/>
       <c r="C2" s="23" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>1</v>
@@ -3933,12 +3956,12 @@
       <c r="L2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="51" t="s">
+      <c r="M2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="52"/>
       <c r="Q2" s="23" t="s">
         <v>30</v>
       </c>
@@ -3947,8 +3970,8 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="B3" s="55" t="s">
-        <v>118</v>
+      <c r="B3" s="54" t="s">
+        <v>128</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -3991,7 +4014,7 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="B4" s="55"/>
+      <c r="B4" s="54"/>
       <c r="C4" t="s">
         <v>12</v>
       </c>
@@ -4043,8 +4066,8 @@
       <c r="P5" s="32"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="B6" s="56" t="s">
-        <v>119</v>
+      <c r="B6" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -4090,7 +4113,7 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="B7" s="55"/>
+      <c r="B7" s="54"/>
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="N7" s="12" t="s">
         <v>11</v>
@@ -4135,9 +4158,9 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="55"/>
+      <c r="B8" s="54"/>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -4168,7 +4191,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q8">
         <f>SUM(H8:J8)</f>
@@ -4180,39 +4203,39 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="55"/>
+      <c r="B9" s="54"/>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="B10" s="55"/>
+      <c r="B10" s="54"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="B11" s="55"/>
+      <c r="B11" s="54"/>
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="B12" s="55"/>
+      <c r="B12" s="54"/>
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="B13" s="55"/>
+      <c r="B13" s="54"/>
       <c r="C13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="B14" s="55"/>
-      <c r="C14" s="48" t="s">
-        <v>163</v>
+      <c r="B14" s="54"/>
+      <c r="C14" s="47" t="s">
+        <v>174</v>
       </c>
       <c r="D14">
         <v>33</v>
@@ -4248,14 +4271,14 @@
       <c r="Q14">
         <v>0.5</v>
       </c>
-      <c r="R14" s="54">
+      <c r="R14" s="53">
         <f>SUM(G14*I14,G15*I15+G16*I16)</f>
         <v>362.54545454545456</v>
       </c>
     </row>
     <row r="15" spans="1:18">
-      <c r="B15" s="55"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="47"/>
       <c r="F15">
         <v>6</v>
       </c>
@@ -4278,11 +4301,11 @@
       <c r="Q15">
         <v>0.33</v>
       </c>
-      <c r="R15" s="54"/>
+      <c r="R15" s="53"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="B16" s="55"/>
-      <c r="C16" s="48"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="47"/>
       <c r="F16">
         <v>15</v>
       </c>
@@ -4311,10 +4334,10 @@
       <c r="Q16">
         <v>0.25</v>
       </c>
-      <c r="R16" s="54"/>
+      <c r="R16" s="53"/>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">
-      <c r="B17" s="55"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="3" t="s">
         <v>33</v>
       </c>
@@ -4340,7 +4363,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -4348,7 +4371,7 @@
       <c r="R17" s="5"/>
     </row>
     <row r="18" spans="1:18" s="3" customFormat="1">
-      <c r="B18" s="55"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
@@ -4374,7 +4397,7 @@
         <v>20</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -4395,7 +4418,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" s="21" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
@@ -4444,7 +4467,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" s="21" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4472,7 +4495,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="3" width="11.25" customWidth="1"/>
@@ -4517,7 +4540,7 @@
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4555,7 +4578,7 @@
     </row>
     <row r="4" spans="2:14">
       <c r="L4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="M4" t="s">
         <v>47</v>
@@ -4572,71 +4595,92 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:X84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="8.75" style="11"/>
+    <col min="1" max="1" width="2.6875" customWidth="1"/>
+    <col min="2" max="2" width="8.3125" customWidth="1"/>
+    <col min="3" max="13" width="6.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1"/>
+    <col min="19" max="19" width="34.0625" customWidth="1"/>
+    <col min="20" max="20" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="B3" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="58" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="R1" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="T1" s="47"/>
+      <c r="U1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="18" customHeight="1">
+      <c r="B3" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1">
-      <c r="B4" s="64"/>
+      <c r="C3" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="Q3" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="8">
+        <v>15</v>
+      </c>
+      <c r="S3" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="T3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U3" t="s">
+        <v>196</v>
+      </c>
+      <c r="X3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="33.75">
+      <c r="B4" s="65"/>
       <c r="C4" s="57" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="D4" s="57"/>
       <c r="E4" s="57"/>
@@ -4648,12 +4692,25 @@
       <c r="K4" s="57"/>
       <c r="L4" s="57"/>
       <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="B5" s="64"/>
-      <c r="C5" s="57" t="s">
-        <v>170</v>
-      </c>
+      <c r="Q4" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="R4" s="8">
+        <v>35</v>
+      </c>
+      <c r="S4" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="18" customHeight="1">
+      <c r="B5" s="65"/>
+      <c r="C5" s="57"/>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
@@ -4664,42 +4721,44 @@
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="42"/>
+      <c r="Q5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="R5" s="8">
+        <v>5</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="B7" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+    </row>
+    <row r="8" spans="1:24">
+      <c r="B8" s="41"/>
       <c r="C8" s="57" t="s">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -4712,11 +4771,9 @@
       <c r="L8" s="57"/>
       <c r="M8" s="57"/>
     </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="42"/>
-      <c r="C9" s="57" t="s">
-        <v>174</v>
-      </c>
+    <row r="9" spans="1:24">
+      <c r="B9" s="41"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="57"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
@@ -4728,42 +4785,27 @@
       <c r="L9" s="57"/>
       <c r="M9" s="57"/>
     </row>
-    <row r="10" spans="1:14">
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="42"/>
-      <c r="C12" s="57" t="s">
-        <v>177</v>
-      </c>
+    <row r="11" spans="1:24">
+      <c r="B11" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" s="41"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="57"/>
       <c r="E12" s="57"/>
       <c r="F12" s="57"/>
@@ -4775,11 +4817,9 @@
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
     </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="42"/>
-      <c r="C13" s="57" t="s">
-        <v>178</v>
-      </c>
+    <row r="13" spans="1:24">
+      <c r="B13" s="41"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="57"/>
       <c r="E13" s="57"/>
       <c r="F13" s="57"/>
@@ -4791,88 +4831,60 @@
       <c r="L13" s="57"/>
       <c r="M13" s="57"/>
     </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="1:24">
+      <c r="B15" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="41"/>
+      <c r="C16" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="42"/>
-      <c r="C16" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="42"/>
-      <c r="C17" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="42" t="s">
-        <v>182</v>
+      <c r="B19" s="41" t="s">
+        <v>99</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -4886,9 +4898,9 @@
       <c r="M19" s="62"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="42"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="57" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="D20" s="57"/>
       <c r="E20" s="57"/>
@@ -4902,10 +4914,8 @@
       <c r="M20" s="57"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="42"/>
-      <c r="C21" s="57" t="s">
-        <v>185</v>
-      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="E21" s="57"/>
       <c r="F21" s="57"/>
@@ -4917,25 +4927,12 @@
       <c r="L21" s="57"/>
       <c r="M21" s="57"/>
     </row>
-    <row r="22" spans="2:13">
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-    </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="42" t="s">
-        <v>167</v>
+      <c r="B23" s="41" t="s">
+        <v>180</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
@@ -4949,9 +4946,9 @@
       <c r="M23" s="62"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="42"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="57" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="57"/>
@@ -4965,7 +4962,7 @@
       <c r="M24" s="57"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="42"/>
+      <c r="B25" s="41"/>
       <c r="C25" s="57"/>
       <c r="D25" s="57"/>
       <c r="E25" s="57"/>
@@ -4978,41 +4975,28 @@
       <c r="L25" s="57"/>
       <c r="M25" s="57"/>
     </row>
-    <row r="26" spans="2:13">
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-    </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="C27" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="58"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="B27" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="42"/>
+      <c r="B28" s="41"/>
       <c r="C28" s="57" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="57"/>
@@ -5026,10 +5010,8 @@
       <c r="M28" s="57"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="42"/>
-      <c r="C29" s="57" t="s">
-        <v>189</v>
-      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="57"/>
       <c r="E29" s="57"/>
       <c r="F29" s="57"/>
@@ -5041,41 +5023,28 @@
       <c r="L29" s="57"/>
       <c r="M29" s="57"/>
     </row>
-    <row r="30" spans="2:13">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-    </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
+      <c r="B31" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="59"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="57" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="57"/>
@@ -5089,10 +5058,8 @@
       <c r="M32" s="57"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="59"/>
-      <c r="C33" s="57" t="s">
-        <v>192</v>
-      </c>
+      <c r="B33" s="58"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="57"/>
       <c r="E33" s="57"/>
       <c r="F33" s="57"/>
@@ -5104,43 +5071,28 @@
       <c r="L33" s="57"/>
       <c r="M33" s="57"/>
     </row>
-    <row r="34" spans="2:13">
-      <c r="C34" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-    </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
+      <c r="B35" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="59"/>
-      <c r="C36" s="57" t="s">
-        <v>194</v>
+      <c r="B36" s="58"/>
+      <c r="C36" s="61" t="s">
+        <v>181</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
@@ -5154,7 +5106,7 @@
       <c r="M36" s="57"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="59"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
@@ -5167,41 +5119,28 @@
       <c r="L37" s="57"/>
       <c r="M37" s="57"/>
     </row>
-    <row r="38" spans="2:13">
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-    </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
+      <c r="B39" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="59"/>
-      <c r="C40" s="57" t="s">
-        <v>195</v>
+      <c r="B40" s="58"/>
+      <c r="C40" s="61" t="s">
+        <v>182</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="57"/>
@@ -5214,8 +5153,8 @@
       <c r="L40" s="57"/>
       <c r="M40" s="57"/>
     </row>
-    <row r="41" spans="2:13">
-      <c r="B41" s="59"/>
+    <row r="41" spans="2:13" ht="34.15" customHeight="1">
+      <c r="B41" s="58"/>
       <c r="C41" s="57"/>
       <c r="D41" s="57"/>
       <c r="E41" s="57"/>
@@ -5228,35 +5167,22 @@
       <c r="L41" s="57"/>
       <c r="M41" s="57"/>
     </row>
-    <row r="42" spans="2:13">
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="37"/>
-    </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="59"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="59"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="57"/>
       <c r="D44" s="57"/>
       <c r="E44" s="57"/>
@@ -5270,7 +5196,7 @@
       <c r="M44" s="57"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="59"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="57"/>
       <c r="D45" s="57"/>
       <c r="E45" s="57"/>
@@ -5283,35 +5209,22 @@
       <c r="L45" s="57"/>
       <c r="M45" s="57"/>
     </row>
-    <row r="46" spans="2:13">
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="37"/>
-    </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="59"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="60"/>
-      <c r="L47" s="60"/>
-      <c r="M47" s="60"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="59"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
       <c r="E48" s="57"/>
@@ -5325,7 +5238,7 @@
       <c r="M48" s="57"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="59"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
       <c r="E49" s="57"/>
@@ -5338,41 +5251,28 @@
       <c r="L49" s="57"/>
       <c r="M49" s="57"/>
     </row>
-    <row r="50" spans="2:13">
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
-    </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
+      <c r="B51" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="59"/>
+      <c r="B52" s="58"/>
       <c r="C52" s="57" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="57"/>
@@ -5386,7 +5286,7 @@
       <c r="M52" s="57"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="59"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="57"/>
       <c r="D53" s="57"/>
       <c r="E53" s="57"/>
@@ -5399,36 +5299,23 @@
       <c r="L53" s="57"/>
       <c r="M53" s="57"/>
     </row>
-    <row r="54" spans="2:13">
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="37"/>
-      <c r="M54" s="37"/>
-    </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="59"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="60"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="60"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="59"/>
-      <c r="C56" s="65"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="61"/>
       <c r="D56" s="57"/>
       <c r="E56" s="57"/>
       <c r="F56" s="57"/>
@@ -5441,7 +5328,7 @@
       <c r="M56" s="57"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="59"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="57"/>
       <c r="D57" s="57"/>
       <c r="E57" s="57"/>
@@ -5454,55 +5341,22 @@
       <c r="L57" s="57"/>
       <c r="M57" s="57"/>
     </row>
-    <row r="58" spans="2:13">
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-    </row>
-    <row r="59" spans="2:13">
-      <c r="B59" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="60"/>
-      <c r="M59" s="60"/>
-    </row>
-    <row r="60" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B60" s="59"/>
-      <c r="C60" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
+    <row r="60" spans="2:13" ht="16.899999999999999" customHeight="1">
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="59"/>
+      <c r="B61" s="58"/>
       <c r="C61" s="57"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
@@ -5516,61 +5370,49 @@
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="37"/>
-      <c r="M62" s="37"/>
-    </row>
-    <row r="63" spans="2:13">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="59"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="56"/>
+      <c r="K64" s="56"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="59"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
     </row>
     <row r="66" spans="2:13">
+      <c r="B66" s="41"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
@@ -5583,49 +5425,36 @@
       <c r="L66" s="37"/>
       <c r="M66" s="37"/>
     </row>
-    <row r="67" spans="2:13">
-      <c r="B67" s="42"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-    </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="42"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38"/>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="56"/>
+      <c r="K68" s="56"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="42"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
     </row>
     <row r="70" spans="2:13">
+      <c r="B70" s="41"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
@@ -5638,84 +5467,71 @@
       <c r="L70" s="37"/>
       <c r="M70" s="37"/>
     </row>
-    <row r="71" spans="2:13">
-      <c r="B71" s="42"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="58"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="58"/>
-      <c r="M71" s="58"/>
-    </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="42"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
+      <c r="B72" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72" s="68"/>
+      <c r="E72" s="68"/>
+      <c r="F72" s="68"/>
+      <c r="G72" s="68"/>
+      <c r="H72" s="68"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="42"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
+      <c r="B73" s="58"/>
+      <c r="C73" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
     </row>
     <row r="74" spans="2:13">
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="67" t="s">
-        <v>197</v>
-      </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="68"/>
-      <c r="L75" s="68"/>
-      <c r="M75" s="68"/>
-    </row>
-    <row r="76" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B76" s="59"/>
-      <c r="C76" s="66" t="s">
-        <v>158</v>
-      </c>
+      <c r="B75" s="58"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+    </row>
+    <row r="76" spans="2:13" ht="45.4" customHeight="1">
+      <c r="B76" s="58"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="66"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
@@ -5728,22 +5544,26 @@
       <c r="M76" s="66"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="59"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
+      <c r="B77" s="58"/>
+      <c r="C77" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="69"/>
+      <c r="G77" s="69"/>
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="69"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="69"/>
+      <c r="M77" s="69"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="59"/>
-      <c r="C78" s="66"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="66" t="s">
+        <v>171</v>
+      </c>
       <c r="D78" s="66"/>
       <c r="E78" s="66"/>
       <c r="F78" s="66"/>
@@ -5756,7 +5576,7 @@
       <c r="M78" s="66"/>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="59"/>
+      <c r="B79" s="58"/>
       <c r="C79" s="66"/>
       <c r="D79" s="66"/>
       <c r="E79" s="66"/>
@@ -5770,25 +5590,25 @@
       <c r="M79" s="66"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="59"/>
-      <c r="C80" s="69" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="69"/>
-      <c r="E80" s="69"/>
-      <c r="F80" s="69"/>
-      <c r="G80" s="69"/>
-      <c r="H80" s="69"/>
-      <c r="I80" s="69"/>
-      <c r="J80" s="69"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="69"/>
-      <c r="M80" s="69"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="68"/>
+      <c r="I80" s="68"/>
+      <c r="J80" s="68"/>
+      <c r="K80" s="68"/>
+      <c r="L80" s="68"/>
+      <c r="M80" s="68"/>
     </row>
     <row r="81" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B81" s="59"/>
+      <c r="B81" s="58"/>
       <c r="C81" s="66" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D81" s="66"/>
       <c r="E81" s="66"/>
@@ -5802,7 +5622,7 @@
       <c r="M81" s="66"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="59"/>
+      <c r="B82" s="58"/>
       <c r="C82" s="66"/>
       <c r="D82" s="66"/>
       <c r="E82" s="66"/>
@@ -5816,26 +5636,22 @@
       <c r="M82" s="66"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="59"/>
-      <c r="C83" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
+      <c r="B83" s="58"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
     </row>
     <row r="84" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B84" s="59"/>
-      <c r="C84" s="66" t="s">
-        <v>162</v>
-      </c>
+      <c r="B84" s="58"/>
+      <c r="C84" s="66"/>
       <c r="D84" s="66"/>
       <c r="E84" s="66"/>
       <c r="F84" s="66"/>
@@ -5847,122 +5663,68 @@
       <c r="L84" s="66"/>
       <c r="M84" s="66"/>
     </row>
-    <row r="85" spans="2:13">
-      <c r="B85" s="59"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
-      <c r="M85" s="66"/>
-    </row>
-    <row r="86" spans="2:13">
-      <c r="B86" s="59"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
-      <c r="M86" s="66"/>
-    </row>
-    <row r="87" spans="2:13">
-      <c r="B87" s="59"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
-      <c r="M87" s="66"/>
-    </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="C81:M82"/>
-    <mergeCell ref="C83:M83"/>
-    <mergeCell ref="C84:M87"/>
-    <mergeCell ref="B75:B87"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:M71"/>
-    <mergeCell ref="C72:M73"/>
-    <mergeCell ref="C75:M75"/>
-    <mergeCell ref="C76:M79"/>
+  <mergeCells count="60">
+    <mergeCell ref="C78:M79"/>
     <mergeCell ref="C80:M80"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="B63:B65"/>
-    <mergeCell ref="C63:M63"/>
-    <mergeCell ref="C64:M65"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:M47"/>
-    <mergeCell ref="C48:M49"/>
-    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C81:M84"/>
+    <mergeCell ref="B72:B84"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:M68"/>
+    <mergeCell ref="C69:M70"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="C73:M76"/>
+    <mergeCell ref="C77:M77"/>
     <mergeCell ref="C39:M39"/>
     <mergeCell ref="C40:M41"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="C43:M43"/>
     <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:M67"/>
-    <mergeCell ref="C68:M69"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:M64"/>
+    <mergeCell ref="C65:M66"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="C55:M55"/>
     <mergeCell ref="C56:M57"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:M59"/>
-    <mergeCell ref="C60:M61"/>
+    <mergeCell ref="C32:M33"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:M60"/>
+    <mergeCell ref="C61:M62"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:M47"/>
+    <mergeCell ref="C48:M49"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M5"/>
     <mergeCell ref="C7:M7"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C5:M5"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="C8:M9"/>
+    <mergeCell ref="C28:M29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C16:M17"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="S1:T1"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M13"/>
     <mergeCell ref="C52:M53"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="C51:M51"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:M23"/>
     <mergeCell ref="C24:M25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C12:M12"/>
-    <mergeCell ref="C13:M13"/>
-    <mergeCell ref="C16:M16"/>
-    <mergeCell ref="C17:M17"/>
-    <mergeCell ref="C20:M20"/>
-    <mergeCell ref="C38:M38"/>
-    <mergeCell ref="C21:M21"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C29:M29"/>
-    <mergeCell ref="C32:M32"/>
-    <mergeCell ref="C33:M33"/>
-    <mergeCell ref="C36:M36"/>
-    <mergeCell ref="C37:M37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5978,7 +5740,7 @@
       <selection activeCell="B11" sqref="B11:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="11"/>
@@ -5990,148 +5752,148 @@
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
+      <c r="B2" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
+      <c r="B6" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
+      <c r="B7" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
+      <c r="B8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
     </row>
     <row r="10" spans="2:15">
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -6150,82 +5912,82 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="42"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="42"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="42"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
     </row>
     <row r="16" spans="2:15">
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="42"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="42"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
     </row>
     <row r="19" spans="2:15">
       <c r="C19" s="10"/>
@@ -6243,20 +6005,20 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -6275,34 +6037,34 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="42"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="42"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="2:15">
       <c r="C24" s="10"/>
@@ -6320,64 +6082,64 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="42"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="42"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="42"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="42"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
     </row>
     <row r="29" spans="2:15">
       <c r="C29" s="10"/>
@@ -6396,78 +6158,78 @@
     </row>
     <row r="30" spans="2:15">
       <c r="C30" s="9"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
     </row>
     <row r="31" spans="2:15">
       <c r="C31" s="10"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="42"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="42"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="C34" s="42"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
     </row>
     <row r="35" spans="2:29">
       <c r="C35" s="10"/>
@@ -6485,20 +6247,20 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:29">
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="44"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="44"/>
-      <c r="M36" s="44"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="44"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
     </row>
     <row r="37" spans="2:29">
       <c r="C37" s="10"/>
@@ -6516,150 +6278,150 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="2:29">
-      <c r="C38" s="42"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="38"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="C39" s="42"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
     </row>
     <row r="41" spans="2:29">
-      <c r="C41" s="42"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="C42" s="42"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
     </row>
     <row r="44" spans="2:29">
-      <c r="C44" s="42"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="47"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="47"/>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
     </row>
     <row r="45" spans="2:29">
-      <c r="C45" s="42"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
     </row>
     <row r="47" spans="2:29">
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="44"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
     </row>
     <row r="48" spans="2:29">
       <c r="D48" s="8"/>
@@ -6676,7 +6438,7 @@
       <c r="O48" s="8"/>
     </row>
     <row r="49" spans="3:15">
-      <c r="C49" s="42"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -6691,31 +6453,31 @@
       <c r="O49" s="8"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="42"/>
+      <c r="C50" s="41"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="42"/>
+      <c r="C51" s="41"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="42"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
-      <c r="O53" s="48"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="47"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="47"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="47"/>
+      <c r="O53" s="47"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="42"/>
+      <c r="C54" s="41"/>
     </row>
     <row r="55" spans="3:15">
-      <c r="C55" s="42"/>
+      <c r="C55" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/게임 제작 기획서 진석.xlsx
+++ b/게임 제작 기획서 진석.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Git folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\daniel\학교\동아리, 프로그래밍\새폴더\게임제작\Git Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획서" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="적 기획서" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -863,7 +862,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,6 +927,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFE29700"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1112,7 +1127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,6 +1337,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1670,7 +1691,7 @@
       <selection activeCell="D50" sqref="D50:O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="11"/>
@@ -2840,7 +2861,7 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="11"/>
@@ -3507,7 +3528,7 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
@@ -3900,26 +3921,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.34765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.34765625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="15.84765625" style="15" customWidth="1"/>
     <col min="14" max="14" width="8.25" style="12" customWidth="1"/>
     <col min="15" max="15" width="11" style="12" customWidth="1"/>
-    <col min="16" max="16" width="5.125" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="5.09765625" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9.59765625" customWidth="1"/>
     <col min="18" max="18" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.95" customHeight="1">
+    <row r="1" spans="1:18" ht="16" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="25"/>
     </row>
@@ -4054,7 +4075,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="27" customFormat="1" ht="0.95" customHeight="1">
+    <row r="5" spans="1:18" s="27" customFormat="1" ht="1" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="28"/>
       <c r="H5" s="29"/>
@@ -4234,7 +4255,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="54"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="70" t="s">
         <v>174</v>
       </c>
       <c r="D14">
@@ -4278,7 +4299,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="54"/>
-      <c r="C15" s="47"/>
+      <c r="C15" s="71"/>
       <c r="F15">
         <v>6</v>
       </c>
@@ -4305,7 +4326,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="54"/>
-      <c r="C16" s="47"/>
+      <c r="C16" s="71"/>
       <c r="F16">
         <v>15</v>
       </c>
@@ -4404,7 +4425,7 @@
       <c r="P18" s="19"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" ht="0.95" customHeight="1">
+    <row r="19" spans="1:18" s="27" customFormat="1" ht="1" customHeight="1">
       <c r="A19" s="33"/>
       <c r="B19" s="28"/>
       <c r="C19" s="34"/>
@@ -4454,7 +4475,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="25" spans="1:18" s="27" customFormat="1" ht="0.95" customHeight="1">
+    <row r="25" spans="1:18" s="27" customFormat="1" ht="1" customHeight="1">
       <c r="A25" s="33"/>
       <c r="B25" s="28"/>
       <c r="H25" s="29"/>
@@ -4495,7 +4516,7 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="3" width="11.25" customWidth="1"/>
@@ -4504,10 +4525,10 @@
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="12.25" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="5.875" customWidth="1"/>
+    <col min="9" max="9" width="5.84765625" customWidth="1"/>
     <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="68.25" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
   </cols>
@@ -4597,19 +4618,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="2.6875" customWidth="1"/>
-    <col min="2" max="2" width="8.3125" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" customWidth="1"/>
     <col min="3" max="13" width="6.5" style="11" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="16" max="16" width="3.625" customWidth="1"/>
-    <col min="19" max="19" width="34.0625" customWidth="1"/>
-    <col min="20" max="20" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.59765625" customWidth="1"/>
+    <col min="19" max="19" width="34.046875" customWidth="1"/>
+    <col min="20" max="20" width="23.09765625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4677,7 +4698,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="33.75">
+    <row r="4" spans="1:24" ht="49.5">
       <c r="B4" s="65"/>
       <c r="C4" s="57" t="s">
         <v>96</v>
@@ -4708,7 +4729,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1">
+    <row r="5" spans="1:24" ht="33">
       <c r="B5" s="65"/>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
@@ -5740,7 +5761,7 @@
       <selection activeCell="B11" sqref="B11:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="11"/>

--- a/게임 제작 기획서 진석.xlsx
+++ b/게임 제작 기획서 진석.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\daniel\학교\동아리, 프로그래밍\새폴더\게임제작\Git Folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12396" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="시스템 기획서" sheetId="5" r:id="rId1"/>
@@ -20,7 +15,7 @@
     <sheet name="적 수치" sheetId="3" r:id="rId6"/>
     <sheet name="적 기획서" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,147 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="202">
-  <si>
-    <t>리볼버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장탄수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장전시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선딜레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후딜레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발사시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>반동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샷건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3&lt;n&lt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5초당 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DPS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머신건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스나이퍼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기관단총</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5초당 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.33초당 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25초당 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 딜레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 탄창 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 33번 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추적 미사일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미니 추적 미사일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="200">
   <si>
     <t>에너지 용량</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -380,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유탄발사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터(우주선)은 항상 마우스의 포인터 쪽으로 우주선을 회전시킨다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플라즈마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격패턴: 일정거리 근접 후 충전하여 레이저 구체 폭격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -536,29 +383,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한번에 5발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2초당 대미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흭득
-가능한
-무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>특수 무기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총기이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -733,18 +558,6 @@
 일정 대미지 이상을 입을 때 마다 3개씩 분열하며 총 4번 반복한다.
 처음으로 분열한 3개는 색이 다르며 마지막 남은 색이 죽으면 폭발한다.
 마지막으로 남은 개체가 죽으면 폭발하면서 경기장이 깨지고 배경과 케릭터만 남는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 레이저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">적추적 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -857,12 +670,186 @@
 속도로 날라가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>총기이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장탄수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장전시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선딜레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발사시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후딜레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 딜레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 탄창 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리볼버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5초당 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흭득
+가능한
+무기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샷건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한번에 5발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3&lt;n&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2초당 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스나이퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기관단총(smg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유탄발사기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 레이저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.33초당 대미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 33번 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추적 미사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니 추적 미사일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">적 추적 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,22 +914,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFE29700"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1127,7 +1098,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,6 +1213,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1251,24 +1240,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1296,53 +1267,47 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1465,7 +1430,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1500,7 +1465,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1677,7 +1642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1691,72 +1656,72 @@
       <selection activeCell="D50" sqref="D50:O50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="11"/>
+    <col min="2" max="2" width="8.69921875" style="11"/>
     <col min="3" max="3" width="11.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="6.5" style="11" customWidth="1"/>
-    <col min="6" max="14" width="8.75" style="11"/>
-    <col min="15" max="15" width="14.25" style="11" customWidth="1"/>
-    <col min="16" max="16384" width="8.75" style="11"/>
+    <col min="6" max="14" width="8.69921875" style="11"/>
+    <col min="15" max="15" width="14.19921875" style="11" customWidth="1"/>
+    <col min="16" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="37" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -1774,7 +1739,7 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="37" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -1792,7 +1757,7 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="37" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -1825,22 +1790,22 @@
       <c r="O9" s="37"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="B11" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -1859,11 +1824,11 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="41" t="s">
-        <v>59</v>
+      <c r="C13" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -1878,9 +1843,9 @@
       <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="41"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="37" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -1895,9 +1860,9 @@
       <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="41"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="37" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -1915,11 +1880,11 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="41" t="s">
-        <v>62</v>
+      <c r="C17" s="38" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -1934,9 +1899,9 @@
       <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="41"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="37" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -1966,22 +1931,22 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="B20" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -2000,11 +1965,11 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="41" t="s">
-        <v>67</v>
+      <c r="C22" s="38" t="s">
+        <v>32</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -2019,9 +1984,9 @@
       <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="37" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -2051,11 +2016,11 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41" t="s">
-        <v>68</v>
+      <c r="C25" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -2070,9 +2035,9 @@
       <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="37" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -2087,9 +2052,9 @@
       <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="37" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -2104,9 +2069,9 @@
       <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="37" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -2137,10 +2102,10 @@
     </row>
     <row r="30" spans="2:15">
       <c r="C30" s="9" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
@@ -2170,11 +2135,11 @@
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41" t="s">
-        <v>72</v>
+      <c r="C32" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="D32" s="37" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -2189,9 +2154,9 @@
       <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="41"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="37" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -2206,9 +2171,9 @@
       <c r="O33" s="37"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="C34" s="41"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="37" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -2223,9 +2188,9 @@
       <c r="O34" s="37"/>
     </row>
     <row r="35" spans="2:29">
-      <c r="C35" s="41"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="37" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
@@ -2255,22 +2220,22 @@
       <c r="O36" s="8"/>
     </row>
     <row r="37" spans="2:29">
-      <c r="B37" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="B37" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
     </row>
     <row r="38" spans="2:29">
       <c r="C38" s="10"/>
@@ -2288,11 +2253,11 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="C39" s="41" t="s">
-        <v>77</v>
+      <c r="C39" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -2319,9 +2284,9 @@
       <c r="AC39" s="37"/>
     </row>
     <row r="40" spans="2:29">
-      <c r="C40" s="41"/>
+      <c r="C40" s="38"/>
       <c r="D40" s="37" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
@@ -2336,11 +2301,11 @@
       <c r="O40" s="37"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="C42" s="41" t="s">
-        <v>79</v>
+      <c r="C42" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
@@ -2355,9 +2320,9 @@
       <c r="O42" s="37"/>
     </row>
     <row r="43" spans="2:29">
-      <c r="C43" s="41"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="37" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
@@ -2386,28 +2351,28 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45" spans="2:29">
-      <c r="C45" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
+      <c r="C45" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
     </row>
     <row r="46" spans="2:29">
-      <c r="C46" s="41"/>
+      <c r="C46" s="38"/>
       <c r="D46" s="37" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
@@ -2436,29 +2401,29 @@
       <c r="O47" s="37"/>
     </row>
     <row r="48" spans="2:29">
-      <c r="B48" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
+      <c r="B48" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="41" t="s">
-        <v>138</v>
+      <c r="C50" s="38" t="s">
+        <v>96</v>
       </c>
       <c r="D50" s="37" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
@@ -2473,9 +2438,9 @@
       <c r="O50" s="37"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="41"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="37" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
@@ -2493,11 +2458,11 @@
       <c r="C52" s="10"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="41" t="s">
-        <v>141</v>
+      <c r="C53" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="D53" s="37" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
@@ -2512,9 +2477,9 @@
       <c r="O53" s="37"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="41"/>
+      <c r="C54" s="38"/>
       <c r="D54" s="37" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
@@ -2529,9 +2494,9 @@
       <c r="O54" s="37"/>
     </row>
     <row r="55" spans="3:15">
-      <c r="C55" s="41"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="37" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
@@ -2546,13 +2511,13 @@
       <c r="O55" s="37"/>
     </row>
     <row r="56" spans="3:15">
-      <c r="C56" s="41"/>
-      <c r="D56" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E56" s="42"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="E56" s="43"/>
       <c r="F56" s="8" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -2565,11 +2530,11 @@
       <c r="O56" s="8"/>
     </row>
     <row r="57" spans="3:15">
-      <c r="C57" s="41"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="8" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -2597,10 +2562,10 @@
     </row>
     <row r="59" spans="3:15">
       <c r="C59" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
@@ -2616,11 +2581,11 @@
     </row>
     <row r="60" spans="3:15" ht="16.5" customHeight="1">
       <c r="D60" s="35" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="E60" s="36"/>
       <c r="F60" s="37" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
@@ -2634,11 +2599,11 @@
     </row>
     <row r="61" spans="3:15">
       <c r="D61" s="8"/>
-      <c r="E61" s="38" t="s">
-        <v>151</v>
+      <c r="E61" s="44" t="s">
+        <v>109</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
@@ -2652,9 +2617,9 @@
     </row>
     <row r="62" spans="3:15">
       <c r="D62" s="8"/>
-      <c r="E62" s="38"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="37" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
@@ -2668,9 +2633,9 @@
     </row>
     <row r="63" spans="3:15">
       <c r="D63" s="8"/>
-      <c r="E63" s="38"/>
+      <c r="E63" s="44"/>
       <c r="F63" s="37" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
@@ -2684,11 +2649,11 @@
     </row>
     <row r="64" spans="3:15">
       <c r="D64" s="8"/>
-      <c r="E64" s="39" t="s">
-        <v>155</v>
+      <c r="E64" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="F64" s="37" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
@@ -2702,9 +2667,9 @@
     </row>
     <row r="65" spans="4:15">
       <c r="D65" s="8"/>
-      <c r="E65" s="40"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="37" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
@@ -2718,9 +2683,9 @@
     </row>
     <row r="66" spans="4:15">
       <c r="D66" s="8"/>
-      <c r="E66" s="40"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="37" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
@@ -2735,10 +2700,10 @@
     <row r="67" spans="4:15" ht="16.5" customHeight="1">
       <c r="D67" s="8"/>
       <c r="E67" s="35" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="F67" s="37" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
@@ -2754,7 +2719,7 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="37" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
@@ -2780,50 +2745,11 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="D54:O54"/>
-    <mergeCell ref="D47:O47"/>
-    <mergeCell ref="R39:AC39"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B48:O48"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="D45:O45"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="D50:O50"/>
-    <mergeCell ref="D51:O51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="D34:O34"/>
-    <mergeCell ref="D39:O39"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="D28:O28"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="D17:O17"/>
-    <mergeCell ref="D18:O18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="F68:O68"/>
+    <mergeCell ref="F69:O69"/>
+    <mergeCell ref="F60:O60"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E64:E66"/>
     <mergeCell ref="C32:C35"/>
     <mergeCell ref="D35:O35"/>
     <mergeCell ref="F65:O65"/>
@@ -2840,11 +2766,50 @@
     <mergeCell ref="D55:O55"/>
     <mergeCell ref="D58:O58"/>
     <mergeCell ref="B37:O37"/>
-    <mergeCell ref="F68:O68"/>
-    <mergeCell ref="F69:O69"/>
-    <mergeCell ref="F60:O60"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="D15:O15"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="D17:O17"/>
+    <mergeCell ref="D18:O18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D34:O34"/>
+    <mergeCell ref="D39:O39"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D54:O54"/>
+    <mergeCell ref="D47:O47"/>
+    <mergeCell ref="R39:AC39"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B48:O48"/>
+    <mergeCell ref="D43:O43"/>
+    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="D50:O50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D42:O42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2861,75 +2826,75 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="11"/>
+    <col min="2" max="2" width="8.69921875" style="11"/>
     <col min="3" max="3" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="11"/>
+    <col min="4" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="37" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -2947,7 +2912,7 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="37" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -2965,7 +2930,7 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="37" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -3001,22 +2966,22 @@
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="B11" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -3035,7 +3000,7 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="41"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -3050,7 +3015,7 @@
       <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="41"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -3065,7 +3030,7 @@
       <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="41"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -3083,7 +3048,7 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="41"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -3098,7 +3063,7 @@
       <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="41"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -3128,22 +3093,22 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="B20" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -3162,7 +3127,7 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="41"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -3177,7 +3142,7 @@
       <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -3207,7 +3172,7 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -3222,7 +3187,7 @@
       <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -3237,7 +3202,7 @@
       <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -3252,7 +3217,7 @@
       <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -3312,7 +3277,7 @@
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -3327,7 +3292,7 @@
       <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="C33" s="41"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -3342,7 +3307,7 @@
       <c r="O33" s="37"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="C34" s="41"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -3386,22 +3351,22 @@
       <c r="O36" s="37"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
+      <c r="B37" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
     </row>
     <row r="38" spans="2:15">
       <c r="D38" s="8"/>
@@ -3418,7 +3383,7 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="C39" s="41"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -3433,13 +3398,13 @@
       <c r="O39" s="8"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="C40" s="41"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="C41" s="41"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="C43" s="41"/>
+      <c r="C43" s="38"/>
       <c r="D43" s="47"/>
       <c r="E43" s="47"/>
       <c r="F43" s="47"/>
@@ -3454,31 +3419,52 @@
       <c r="O43" s="47"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="C44" s="41"/>
+      <c r="C44" s="38"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="C45" s="41"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="B47" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:O43"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D34:O34"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="D28:O28"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:O17"/>
     <mergeCell ref="D18:O18"/>
@@ -3493,27 +3479,6 @@
     <mergeCell ref="D13:O13"/>
     <mergeCell ref="D14:O14"/>
     <mergeCell ref="D15:O15"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="D28:O28"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="D34:O34"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="B47:O47"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="B37:O37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3528,49 +3493,49 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" s="49" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -3588,7 +3553,7 @@
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="47" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
@@ -3687,7 +3652,7 @@
     <row r="12" spans="2:15">
       <c r="B12" s="2"/>
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -3720,8 +3685,8 @@
     </row>
     <row r="14" spans="2:15">
       <c r="B14" s="2"/>
-      <c r="C14" s="41" t="s">
-        <v>53</v>
+      <c r="C14" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -3738,7 +3703,7 @@
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="2"/>
-      <c r="C15" s="41"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -3754,7 +3719,7 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="2"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3770,7 +3735,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="2"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -3802,8 +3767,8 @@
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="2"/>
-      <c r="C19" s="41" t="s">
-        <v>54</v>
+      <c r="C19" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -3820,7 +3785,7 @@
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="2"/>
-      <c r="C20" s="41"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3836,7 +3801,7 @@
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="2"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3852,7 +3817,7 @@
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="2"/>
-      <c r="C22" s="41"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3867,37 +3832,37 @@
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="C24" s="41"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41"/>
+      <c r="C25" s="38"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="C29" s="41"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="C30" s="41"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="C31" s="41"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="41"/>
+      <c r="C33" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3922,83 +3887,83 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:C16"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.34765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.34765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="15.84765625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="8.25" style="12" customWidth="1"/>
+    <col min="13" max="13" width="15.796875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="8.19921875" style="12" customWidth="1"/>
     <col min="15" max="15" width="11" style="12" customWidth="1"/>
     <col min="16" max="16" width="5.09765625" style="18" customWidth="1"/>
     <col min="17" max="17" width="9.59765625" customWidth="1"/>
-    <col min="18" max="18" width="12.75" customWidth="1"/>
+    <col min="18" max="18" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" customHeight="1">
+    <row r="1" spans="1:18" ht="16.05" customHeight="1">
       <c r="A1" s="12"/>
       <c r="B1" s="25"/>
     </row>
-    <row r="2" spans="1:18" s="22" customFormat="1" ht="20.65" customHeight="1">
+    <row r="2" spans="1:18" s="22" customFormat="1" ht="20.7" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="26"/>
       <c r="C2" s="23" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>5</v>
+        <v>164</v>
       </c>
       <c r="K2" s="23" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="M2" s="50" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="N2" s="51"/>
       <c r="O2" s="51"/>
       <c r="P2" s="52"/>
       <c r="Q2" s="23" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>31</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="54" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0.7</v>
@@ -4031,19 +3996,19 @@
       </c>
       <c r="R3">
         <f>D3*F3</f>
-        <v>156</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="B4" s="54"/>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="F4">
         <v>30</v>
@@ -4068,14 +4033,14 @@
         <v>0.5</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <f>SUM(H4:J4)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="27" customFormat="1" ht="1" customHeight="1">
+    <row r="5" spans="1:18" s="27" customFormat="1" ht="1.05" customHeight="1">
       <c r="A5" s="33"/>
       <c r="B5" s="28"/>
       <c r="H5" s="29"/>
@@ -4086,12 +4051,12 @@
       <c r="O5" s="31"/>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="17.399999999999999" customHeight="1">
       <c r="B6" s="55" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -4122,7 +4087,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <f>SUM(H6:J6)</f>
@@ -4136,13 +4101,13 @@
     <row r="7" spans="1:18">
       <c r="B7" s="54"/>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <f>5*5</f>
@@ -4150,16 +4115,16 @@
       </c>
       <c r="G7">
         <f>F7/Q7</f>
-        <v>31.25</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="H7" s="1">
         <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J7" s="1">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -4168,20 +4133,20 @@
         <v>10</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <f>SUM(H7:J7)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="54"/>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -4212,7 +4177,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <f>SUM(H8:J8)</f>
@@ -4226,37 +4191,114 @@
     <row r="9" spans="1:18">
       <c r="B9" s="54"/>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>184</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <f>F9/Q9</f>
+        <v>17.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <f>SUM(H9:J9)</f>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="R9">
+        <f>D9*F9</f>
+        <v>1400</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="54"/>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>185</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10" si="0">SUM(H10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f>D10*F10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="54"/>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>186</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11" si="1">F11/Q11</f>
+        <v>1.8518518518518516</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(H11:K11)</f>
+        <v>10.8</v>
+      </c>
+      <c r="R11">
+        <f>D11*F11</f>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="54"/>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="54"/>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="54"/>
-      <c r="C14" s="70" t="s">
-        <v>174</v>
+      <c r="C14" s="47" t="s">
+        <v>189</v>
       </c>
       <c r="D14">
         <v>33</v>
@@ -4269,10 +4311,10 @@
       </c>
       <c r="G14">
         <f>F14/Q14</f>
-        <v>4</v>
+        <v>6.0606060606060606</v>
       </c>
       <c r="H14" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
@@ -4281,25 +4323,25 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="Q14">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="R14" s="53">
         <f>SUM(G14*I14,G15*I15+G16*I16)</f>
-        <v>362.54545454545456</v>
+        <v>293.93939393939394</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="B15" s="54"/>
-      <c r="C15" s="71"/>
+      <c r="C15" s="47"/>
       <c r="F15">
         <v>6</v>
       </c>
@@ -4314,10 +4356,10 @@
         <v>3</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
       <c r="Q15">
         <v>0.33</v>
@@ -4326,13 +4368,13 @@
     </row>
     <row r="16" spans="1:18">
       <c r="B16" s="54"/>
-      <c r="C16" s="71"/>
+      <c r="C16" s="47"/>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16">
         <f>F16/Q16</f>
-        <v>60</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="I16" s="1">
         <v>5</v>
@@ -4344,23 +4386,23 @@
         <v>5</v>
       </c>
       <c r="M16" s="15" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="R16" s="53"/>
     </row>
     <row r="17" spans="1:18" s="3" customFormat="1">
       <c r="B17" s="54"/>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>196</v>
       </c>
       <c r="D17" s="3">
         <v>6</v>
@@ -4384,7 +4426,7 @@
         <v>20</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -4394,7 +4436,7 @@
     <row r="18" spans="1:18" s="3" customFormat="1">
       <c r="B18" s="54"/>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="D18" s="3">
         <v>18</v>
@@ -4418,14 +4460,14 @@
         <v>20</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
       <c r="P18" s="19"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" s="27" customFormat="1" ht="1" customHeight="1">
+    <row r="19" spans="1:18" s="27" customFormat="1" ht="1.05" customHeight="1">
       <c r="A19" s="33"/>
       <c r="B19" s="28"/>
       <c r="C19" s="34"/>
@@ -4439,7 +4481,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="B20" s="21" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="8"/>
@@ -4475,7 +4517,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="25" spans="1:18" s="27" customFormat="1" ht="1" customHeight="1">
+    <row r="25" spans="1:18" s="27" customFormat="1" ht="1.05" customHeight="1">
       <c r="A25" s="33"/>
       <c r="B25" s="28"/>
       <c r="H25" s="29"/>
@@ -4488,7 +4530,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="B26" s="21" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4502,9 +4544,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="Q3:Q4 Q6:Q8" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4516,52 +4555,52 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="3" width="11.25" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
     <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="7" max="7" width="12.19921875" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="5.84765625" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" customWidth="1"/>
+    <col min="10" max="10" width="10.19921875" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="12" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="68.25" customWidth="1"/>
+    <col min="13" max="13" width="68.19921875" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
       <c r="C1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -4573,13 +4612,13 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -4588,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -4599,10 +4638,10 @@
     </row>
     <row r="4" spans="2:14">
       <c r="L4" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="M4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>8</v>
@@ -4622,258 +4661,258 @@
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="2.69921875" customWidth="1"/>
     <col min="2" max="2" width="8.296875" customWidth="1"/>
     <col min="3" max="13" width="6.5" style="11" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="16" max="16" width="3.59765625" customWidth="1"/>
-    <col min="19" max="19" width="34.046875" customWidth="1"/>
+    <col min="19" max="19" width="34" customWidth="1"/>
     <col min="20" max="20" width="23.09765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.75" customWidth="1"/>
+    <col min="24" max="24" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="A1" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
       <c r="R1" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
       <c r="T1" s="47"/>
       <c r="U1" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:24" ht="18" customHeight="1">
-      <c r="B3" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="B3" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
       <c r="Q3" s="8" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="R3" s="8">
         <v>15</v>
       </c>
       <c r="S3" s="35" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="T3" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="U3" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="X3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="49.5">
-      <c r="B4" s="65"/>
-      <c r="C4" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="34.799999999999997">
+      <c r="B4" s="68"/>
+      <c r="C4" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
       <c r="Q4" s="8" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="R4" s="8">
         <v>35</v>
       </c>
       <c r="S4" s="35" t="s">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="33">
-      <c r="B5" s="65"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="34.799999999999997">
+      <c r="B5" s="68"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
       <c r="Q5" s="8" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="R5" s="8">
         <v>5</v>
       </c>
       <c r="S5" s="35" t="s">
-        <v>201</v>
+        <v>156</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>200</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="B7" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="B7" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
     </row>
     <row r="8" spans="1:24">
-      <c r="B8" s="41"/>
-      <c r="C8" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
     </row>
     <row r="9" spans="1:24">
-      <c r="B9" s="41"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
     </row>
     <row r="11" spans="1:24">
-      <c r="B11" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="B11" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:24">
-      <c r="B12" s="41"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
     </row>
     <row r="13" spans="1:24">
-      <c r="B13" s="41"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
     </row>
     <row r="15" spans="1:24">
-      <c r="B15" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="B15" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
     </row>
     <row r="16" spans="1:24">
-      <c r="B16" s="41"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="37" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
@@ -4887,7 +4926,7 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="41"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
@@ -4901,525 +4940,525 @@
       <c r="M17" s="37"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="B19" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="41"/>
-      <c r="C20" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="41"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
+      <c r="B23" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="69"/>
+      <c r="L23" s="69"/>
+      <c r="M23" s="69"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="41"/>
-      <c r="C24" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="41"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
+      <c r="B27" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="41"/>
-      <c r="C28" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="41"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="60"/>
-      <c r="M31" s="60"/>
+      <c r="B31" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="58"/>
-      <c r="C32" s="57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
     </row>
     <row r="33" spans="2:13">
-      <c r="B33" s="58"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
     </row>
     <row r="35" spans="2:13">
-      <c r="B35" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
+      <c r="B35" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="2:13">
-      <c r="B36" s="58"/>
-      <c r="C36" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
     </row>
     <row r="37" spans="2:13">
-      <c r="B37" s="58"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
     </row>
     <row r="39" spans="2:13">
-      <c r="B39" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="60"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="60"/>
+      <c r="B39" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
     </row>
     <row r="40" spans="2:13">
-      <c r="B40" s="58"/>
-      <c r="C40" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-    </row>
-    <row r="41" spans="2:13" ht="34.15" customHeight="1">
-      <c r="B41" s="58"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+    </row>
+    <row r="41" spans="2:13" ht="34.200000000000003" customHeight="1">
+      <c r="B41" s="59"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="64"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="64"/>
     </row>
     <row r="43" spans="2:13">
-      <c r="B43" s="58"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="2:13">
-      <c r="B44" s="58"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
     </row>
     <row r="45" spans="2:13">
-      <c r="B45" s="58"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="64"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
     </row>
     <row r="47" spans="2:13">
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="59"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="M47" s="65"/>
     </row>
     <row r="48" spans="2:13">
-      <c r="B48" s="58"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="58"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="64"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="64"/>
+      <c r="L49" s="64"/>
+      <c r="M49" s="64"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
+      <c r="B51" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="58"/>
-      <c r="C52" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="64"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
     </row>
     <row r="53" spans="2:13">
-      <c r="B53" s="58"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="64"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="64"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
     </row>
     <row r="55" spans="2:13">
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="59"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="59"/>
-      <c r="M55" s="59"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
+      <c r="M55" s="65"/>
     </row>
     <row r="56" spans="2:13">
-      <c r="B56" s="58"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
     </row>
     <row r="57" spans="2:13">
-      <c r="B57" s="58"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
-      <c r="J57" s="57"/>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-    </row>
-    <row r="60" spans="2:13" ht="16.899999999999999" customHeight="1">
-      <c r="B60" s="58"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+    </row>
+    <row r="60" spans="2:13" ht="16.95" customHeight="1">
+      <c r="B60" s="59"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
+      <c r="M60" s="65"/>
     </row>
     <row r="61" spans="2:13">
-      <c r="B61" s="58"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="57"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
     </row>
     <row r="62" spans="2:13">
-      <c r="B62" s="58"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="57"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
+      <c r="B62" s="59"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
     </row>
     <row r="64" spans="2:13">
-      <c r="B64" s="41"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="60"/>
+      <c r="K64" s="60"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="60"/>
     </row>
     <row r="65" spans="2:13">
-      <c r="B65" s="41"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
@@ -5433,7 +5472,7 @@
       <c r="M65" s="37"/>
     </row>
     <row r="66" spans="2:13">
-      <c r="B66" s="41"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
@@ -5447,21 +5486,21 @@
       <c r="M66" s="37"/>
     </row>
     <row r="68" spans="2:13">
-      <c r="B68" s="41"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="56"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="60"/>
+      <c r="J68" s="60"/>
+      <c r="K68" s="60"/>
+      <c r="L68" s="60"/>
+      <c r="M68" s="60"/>
     </row>
     <row r="69" spans="2:13">
-      <c r="B69" s="41"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
@@ -5475,7 +5514,7 @@
       <c r="M69" s="37"/>
     </row>
     <row r="70" spans="2:13">
-      <c r="B70" s="41"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
@@ -5489,218 +5528,232 @@
       <c r="M70" s="37"/>
     </row>
     <row r="72" spans="2:13">
-      <c r="B72" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="67" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
+      <c r="B72" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
+      <c r="F72" s="58"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="58"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="58"/>
+      <c r="M72" s="58"/>
     </row>
     <row r="73" spans="2:13">
-      <c r="B73" s="58"/>
-      <c r="C73" s="66" t="s">
-        <v>183</v>
-      </c>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
+      <c r="B73" s="59"/>
+      <c r="C73" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="56"/>
+      <c r="K73" s="56"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
     </row>
     <row r="74" spans="2:13">
-      <c r="B74" s="58"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="56"/>
+      <c r="J74" s="56"/>
+      <c r="K74" s="56"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
     </row>
     <row r="75" spans="2:13">
-      <c r="B75" s="58"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
-      <c r="M75" s="66"/>
-    </row>
-    <row r="76" spans="2:13" ht="45.4" customHeight="1">
-      <c r="B76" s="58"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
+      <c r="F75" s="56"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="56"/>
+      <c r="J75" s="56"/>
+      <c r="K75" s="56"/>
+      <c r="L75" s="56"/>
+      <c r="M75" s="56"/>
+    </row>
+    <row r="76" spans="2:13" ht="45.45" customHeight="1">
+      <c r="B76" s="59"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
     </row>
     <row r="77" spans="2:13">
-      <c r="B77" s="58"/>
-      <c r="C77" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="69"/>
-      <c r="G77" s="69"/>
-      <c r="H77" s="69"/>
-      <c r="I77" s="69"/>
-      <c r="J77" s="69"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="69"/>
+      <c r="B77" s="59"/>
+      <c r="C77" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="61"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="61"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
+      <c r="I77" s="61"/>
+      <c r="J77" s="61"/>
+      <c r="K77" s="61"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
     </row>
     <row r="78" spans="2:13">
-      <c r="B78" s="58"/>
-      <c r="C78" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="66"/>
-      <c r="M78" s="66"/>
+      <c r="B78" s="59"/>
+      <c r="C78" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
+      <c r="F78" s="56"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="56"/>
+      <c r="K78" s="56"/>
+      <c r="L78" s="56"/>
+      <c r="M78" s="56"/>
     </row>
     <row r="79" spans="2:13">
-      <c r="B79" s="58"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
-      <c r="L79" s="66"/>
-      <c r="M79" s="66"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="56"/>
+      <c r="K79" s="56"/>
+      <c r="L79" s="56"/>
+      <c r="M79" s="56"/>
     </row>
     <row r="80" spans="2:13">
-      <c r="B80" s="58"/>
-      <c r="C80" s="67" t="s">
-        <v>172</v>
-      </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="58"/>
+      <c r="J80" s="58"/>
+      <c r="K80" s="58"/>
+      <c r="L80" s="58"/>
+      <c r="M80" s="58"/>
     </row>
     <row r="81" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B81" s="58"/>
-      <c r="C81" s="66" t="s">
-        <v>173</v>
-      </c>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
-      <c r="M81" s="66"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="56"/>
+      <c r="K81" s="56"/>
+      <c r="L81" s="56"/>
+      <c r="M81" s="56"/>
     </row>
     <row r="82" spans="2:13">
-      <c r="B82" s="58"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="56"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="56"/>
+      <c r="J82" s="56"/>
+      <c r="K82" s="56"/>
+      <c r="L82" s="56"/>
+      <c r="M82" s="56"/>
     </row>
     <row r="83" spans="2:13">
-      <c r="B83" s="58"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="56"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="56"/>
+      <c r="L83" s="56"/>
+      <c r="M83" s="56"/>
     </row>
     <row r="84" spans="2:13" ht="16.5" customHeight="1">
-      <c r="B84" s="58"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="66"/>
-      <c r="M84" s="66"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+      <c r="G84" s="56"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="56"/>
+      <c r="J84" s="56"/>
+      <c r="K84" s="56"/>
+      <c r="L84" s="56"/>
+      <c r="M84" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C78:M79"/>
-    <mergeCell ref="C80:M80"/>
-    <mergeCell ref="C81:M84"/>
-    <mergeCell ref="B72:B84"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:M68"/>
-    <mergeCell ref="C69:M70"/>
-    <mergeCell ref="C72:M72"/>
-    <mergeCell ref="C73:M76"/>
-    <mergeCell ref="C77:M77"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M41"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:M43"/>
-    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C12:M13"/>
+    <mergeCell ref="C52:M53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:M51"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:M19"/>
+    <mergeCell ref="C20:M21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:M23"/>
+    <mergeCell ref="C24:M25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C4:M5"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C8:M9"/>
+    <mergeCell ref="C28:M29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="C16:M17"/>
+    <mergeCell ref="C27:M27"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="C31:M31"/>
     <mergeCell ref="B64:B66"/>
@@ -5717,35 +5770,21 @@
     <mergeCell ref="C47:M47"/>
     <mergeCell ref="C48:M49"/>
     <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C4:M5"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C8:M9"/>
-    <mergeCell ref="C28:M29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="C16:M17"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="C12:M13"/>
-    <mergeCell ref="C52:M53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:M51"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:M19"/>
-    <mergeCell ref="C20:M21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:M23"/>
-    <mergeCell ref="C24:M25"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C40:M41"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C78:M79"/>
+    <mergeCell ref="C80:M80"/>
+    <mergeCell ref="C81:M84"/>
+    <mergeCell ref="B72:B84"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:M68"/>
+    <mergeCell ref="C69:M70"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="C73:M76"/>
+    <mergeCell ref="C77:M77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5761,75 +5800,75 @@
       <selection activeCell="B11" sqref="B11:O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="1.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="11"/>
+    <col min="2" max="2" width="8.69921875" style="11"/>
     <col min="3" max="3" width="11.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="11"/>
+    <col min="4" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
       <c r="C1" s="11"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15">
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
+      <c r="B5" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="37" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -5847,7 +5886,7 @@
     </row>
     <row r="7" spans="2:15">
       <c r="B7" s="37" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -5865,7 +5904,7 @@
     </row>
     <row r="8" spans="2:15">
       <c r="B8" s="37" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
@@ -5901,20 +5940,20 @@
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="2:15">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12" s="10"/>
@@ -5933,7 +5972,7 @@
       <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="C13" s="41"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -5948,7 +5987,7 @@
       <c r="O13" s="37"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="C14" s="41"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
@@ -5963,7 +6002,7 @@
       <c r="O14" s="37"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="C15" s="41"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -5981,7 +6020,7 @@
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="C17" s="41"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
@@ -5996,7 +6035,7 @@
       <c r="O17" s="37"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="C18" s="41"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
@@ -6026,20 +6065,20 @@
       <c r="O19" s="8"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="10"/>
@@ -6058,7 +6097,7 @@
       <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="C22" s="41"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -6073,7 +6112,7 @@
       <c r="O22" s="37"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="C23" s="41"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
@@ -6103,7 +6142,7 @@
       <c r="O24" s="8"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="C25" s="41"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -6118,7 +6157,7 @@
       <c r="O25" s="37"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="C26" s="41"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
@@ -6133,7 +6172,7 @@
       <c r="O26" s="37"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="C27" s="41"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
@@ -6148,7 +6187,7 @@
       <c r="O27" s="37"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="C28" s="41"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
@@ -6208,7 +6247,7 @@
       <c r="O31" s="37"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="C32" s="41"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
@@ -6223,7 +6262,7 @@
       <c r="O32" s="37"/>
     </row>
     <row r="33" spans="2:29">
-      <c r="C33" s="41"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
@@ -6238,7 +6277,7 @@
       <c r="O33" s="37"/>
     </row>
     <row r="34" spans="2:29">
-      <c r="C34" s="41"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -6268,20 +6307,20 @@
       <c r="O35" s="8"/>
     </row>
     <row r="36" spans="2:29">
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
     </row>
     <row r="37" spans="2:29">
       <c r="C37" s="10"/>
@@ -6299,7 +6338,7 @@
       <c r="O37" s="8"/>
     </row>
     <row r="38" spans="2:29">
-      <c r="C38" s="41"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
@@ -6326,7 +6365,7 @@
       <c r="AC38" s="37"/>
     </row>
     <row r="39" spans="2:29">
-      <c r="C39" s="41"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
@@ -6341,7 +6380,7 @@
       <c r="O39" s="37"/>
     </row>
     <row r="41" spans="2:29">
-      <c r="C41" s="41"/>
+      <c r="C41" s="38"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
@@ -6356,7 +6395,7 @@
       <c r="O41" s="37"/>
     </row>
     <row r="42" spans="2:29">
-      <c r="C42" s="41"/>
+      <c r="C42" s="38"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
@@ -6385,22 +6424,22 @@
       <c r="O43" s="37"/>
     </row>
     <row r="44" spans="2:29">
-      <c r="C44" s="41"/>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
     </row>
     <row r="45" spans="2:29">
-      <c r="C45" s="41"/>
+      <c r="C45" s="38"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
@@ -6429,20 +6468,20 @@
       <c r="O46" s="37"/>
     </row>
     <row r="47" spans="2:29">
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
     </row>
     <row r="48" spans="2:29">
       <c r="D48" s="8"/>
@@ -6459,7 +6498,7 @@
       <c r="O48" s="8"/>
     </row>
     <row r="49" spans="3:15">
-      <c r="C49" s="41"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -6474,13 +6513,13 @@
       <c r="O49" s="8"/>
     </row>
     <row r="50" spans="3:15">
-      <c r="C50" s="41"/>
+      <c r="C50" s="38"/>
     </row>
     <row r="51" spans="3:15">
-      <c r="C51" s="41"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="53" spans="3:15">
-      <c r="C53" s="41"/>
+      <c r="C53" s="38"/>
       <c r="D53" s="47"/>
       <c r="E53" s="47"/>
       <c r="F53" s="47"/>
@@ -6495,24 +6534,32 @@
       <c r="O53" s="47"/>
     </row>
     <row r="54" spans="3:15">
-      <c r="C54" s="41"/>
+      <c r="C54" s="38"/>
     </row>
     <row r="55" spans="3:15">
-      <c r="C55" s="41"/>
+      <c r="C55" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="D14:O14"/>
-    <mergeCell ref="D15:O15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="D43:O43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:O44"/>
+    <mergeCell ref="D45:O45"/>
+    <mergeCell ref="D46:O46"/>
+    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D34:O34"/>
+    <mergeCell ref="R38:AC38"/>
+    <mergeCell ref="D39:O39"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:O41"/>
+    <mergeCell ref="D42:O42"/>
+    <mergeCell ref="B36:O36"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:O38"/>
     <mergeCell ref="D30:O30"/>
     <mergeCell ref="D31:O31"/>
     <mergeCell ref="C32:C34"/>
@@ -6529,25 +6576,17 @@
     <mergeCell ref="D26:O26"/>
     <mergeCell ref="D27:O27"/>
     <mergeCell ref="D28:O28"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="D34:O34"/>
-    <mergeCell ref="R38:AC38"/>
-    <mergeCell ref="D39:O39"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:O41"/>
-    <mergeCell ref="D42:O42"/>
-    <mergeCell ref="B36:O36"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:O38"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:O53"/>
-    <mergeCell ref="D43:O43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:O44"/>
-    <mergeCell ref="D45:O45"/>
-    <mergeCell ref="D46:O46"/>
-    <mergeCell ref="B47:O47"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="D14:O14"/>
+    <mergeCell ref="D15:O15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
